--- a/data_year/zb/批发和零售业/限额以上批发业企业基本情况和商品购销存情况/按国民经济行业分限额以上批发业企业商品销售额.xlsx
+++ b/data_year/zb/批发和零售业/限额以上批发业企业基本情况和商品购销存情况/按国民经济行业分限额以上批发业企业商品销售额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,1340 +538,805 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>771.8674999999999</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>5607.4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3969.4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2461.6</v>
+      </c>
       <c r="E2" t="n">
-        <v>1206.0014</v>
+        <v>8076.6</v>
       </c>
       <c r="F2" t="n">
-        <v>188.3894</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+        <v>5965.6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2723.8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6447.7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4168.2</v>
+      </c>
       <c r="J2" t="n">
-        <v>1448.4881</v>
+        <v>35139.5</v>
       </c>
       <c r="K2" t="n">
-        <v>1411.5447</v>
+        <v>11474.7</v>
       </c>
       <c r="L2" t="n">
-        <v>4258.9673</v>
+        <v>10589</v>
       </c>
       <c r="M2" t="n">
-        <v>525.2661000000001</v>
+        <v>16822.1</v>
       </c>
       <c r="N2" t="n">
-        <v>5622.9988</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
+        <v>39763.7</v>
+      </c>
+      <c r="O2" t="n">
+        <v>128815.7</v>
+      </c>
       <c r="P2" t="n">
-        <v>823.4592</v>
-      </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+        <v>2192.1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>12221</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3123.3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3483.8</v>
+      </c>
+      <c r="T2" t="n">
+        <v>49625.9</v>
+      </c>
       <c r="U2" t="n">
-        <v>6517.6674</v>
+        <v>19083.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7522.7403</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4997.6507</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3472.0255</v>
+      </c>
       <c r="E3" t="n">
-        <v>1410.0185</v>
+        <v>10465.0725</v>
       </c>
       <c r="F3" t="n">
-        <v>190.9672</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>8763.363600000001</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3632.8701</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7786.0292</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5888.5311</v>
+      </c>
+      <c r="J3" t="n">
+        <v>45023.6214</v>
+      </c>
       <c r="K3" t="n">
-        <v>1533.5708</v>
+        <v>14392.074</v>
       </c>
       <c r="L3" t="n">
-        <v>4165.8207</v>
+        <v>12465.5934</v>
       </c>
       <c r="M3" t="n">
-        <v>611.1167</v>
+        <v>22639.8533</v>
       </c>
       <c r="N3" t="n">
-        <v>6834.0712</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
+        <v>54448.8103</v>
+      </c>
+      <c r="O3" t="n">
+        <v>173469.7154</v>
+      </c>
       <c r="P3" t="n">
-        <v>868.3212</v>
-      </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+        <v>2933.4312</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>15918.7048</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4840.9931</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3995.3221</v>
+      </c>
+      <c r="T3" t="n">
+        <v>65785.29949999999</v>
+      </c>
       <c r="U3" t="n">
-        <v>6405.354</v>
+        <v>23675.3159</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7135.53467</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5985.75071</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4793.65798</v>
+      </c>
       <c r="E4" t="n">
-        <v>1567.25</v>
+        <v>12297.9861</v>
       </c>
       <c r="F4" t="n">
-        <v>240.68</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+        <v>9980.68255</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5162.23535</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8129.34958</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6619.0514</v>
+      </c>
+      <c r="J4" t="n">
+        <v>42168.64253</v>
+      </c>
       <c r="K4" t="n">
-        <v>2087.14</v>
+        <v>15177.63932</v>
       </c>
       <c r="L4" t="n">
-        <v>4166.24</v>
+        <v>14330.6015</v>
       </c>
       <c r="M4" t="n">
-        <v>636.24</v>
+        <v>27717.76832</v>
       </c>
       <c r="N4" t="n">
-        <v>7224.27</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
+        <v>60665.48824</v>
+      </c>
+      <c r="O4" t="n">
+        <v>196624.46741</v>
+      </c>
       <c r="P4" t="n">
-        <v>980.17</v>
-      </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+        <v>3780.68365</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>25825.57054</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4140.64629</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4035.4985</v>
+      </c>
+      <c r="T4" t="n">
+        <v>70440.59897000001</v>
+      </c>
       <c r="U4" t="n">
-        <v>6482.11</v>
+        <v>27855.6361</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1093.96177</v>
+        <v>8627.679459999999</v>
       </c>
       <c r="C5" t="n">
-        <v>1324.60258</v>
+        <v>8113.93278</v>
       </c>
       <c r="D5" t="n">
-        <v>681.7859999999999</v>
+        <v>5167.96676</v>
       </c>
       <c r="E5" t="n">
-        <v>1997.18481</v>
+        <v>15366.94312</v>
       </c>
       <c r="F5" t="n">
-        <v>517.58341</v>
+        <v>11689.07185</v>
       </c>
       <c r="G5" t="n">
-        <v>728.8751099999999</v>
+        <v>6490.6852</v>
       </c>
       <c r="H5" t="n">
-        <v>670.12056</v>
+        <v>9902.891670000001</v>
       </c>
       <c r="I5" t="n">
-        <v>1139.70172</v>
+        <v>7922.44317</v>
       </c>
       <c r="J5" t="n">
-        <v>6322.91626</v>
+        <v>49471.97163</v>
       </c>
       <c r="K5" t="n">
-        <v>2258.49986</v>
+        <v>17540.22134</v>
       </c>
       <c r="L5" t="n">
-        <v>5126.30744</v>
+        <v>15864.97952</v>
       </c>
       <c r="M5" t="n">
-        <v>891.89275</v>
+        <v>32927.05369</v>
       </c>
       <c r="N5" t="n">
-        <v>7961.66994</v>
+        <v>70492.8942</v>
       </c>
       <c r="O5" t="n">
-        <v>16066.6314</v>
+        <v>238585.34908</v>
       </c>
       <c r="P5" t="n">
-        <v>691.79975</v>
+        <v>4756.52038</v>
       </c>
       <c r="Q5" t="n">
-        <v>3452.46116</v>
+        <v>31860.99047</v>
       </c>
       <c r="R5" t="n">
-        <v>356.16593</v>
+        <v>4294.49881</v>
       </c>
       <c r="S5" t="n">
-        <v>796.8532300000001</v>
+        <v>4964.38422</v>
       </c>
       <c r="T5" t="n">
-        <v>4510.02357</v>
+        <v>86602.62139</v>
       </c>
       <c r="U5" t="n">
-        <v>7140.83474</v>
+        <v>34634.60241</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2233.32424</v>
+        <v>9180.637699999999</v>
       </c>
       <c r="C6" t="n">
-        <v>1876.18704</v>
+        <v>8453.764440000001</v>
       </c>
       <c r="D6" t="n">
-        <v>966.30322</v>
+        <v>5530.12545</v>
       </c>
       <c r="E6" t="n">
-        <v>3016.76082</v>
+        <v>17981.351</v>
       </c>
       <c r="F6" t="n">
-        <v>1474.23488</v>
+        <v>12755.40099</v>
       </c>
       <c r="G6" t="n">
-        <v>1109.62335</v>
+        <v>7007.16337</v>
       </c>
       <c r="H6" t="n">
-        <v>1725.07499</v>
+        <v>9847.49431</v>
       </c>
       <c r="I6" t="n">
-        <v>1989.49794</v>
+        <v>8666.94137</v>
       </c>
       <c r="J6" t="n">
-        <v>13037.47717</v>
+        <v>56146.64303</v>
       </c>
       <c r="K6" t="n">
-        <v>3866.6658</v>
+        <v>20087.01846</v>
       </c>
       <c r="L6" t="n">
-        <v>5923.4178</v>
+        <v>17212.0571</v>
       </c>
       <c r="M6" t="n">
-        <v>2480.42242</v>
+        <v>31339.27671</v>
       </c>
       <c r="N6" t="n">
-        <v>15231.04768</v>
+        <v>70909.82332</v>
       </c>
       <c r="O6" t="n">
-        <v>35874.38083</v>
+        <v>252479.0203</v>
       </c>
       <c r="P6" t="n">
-        <v>871.03525</v>
+        <v>5297.08975</v>
       </c>
       <c r="Q6" t="n">
-        <v>5327.49452</v>
+        <v>34924.99922</v>
       </c>
       <c r="R6" t="n">
-        <v>1246.46814</v>
+        <v>4625.29309</v>
       </c>
       <c r="S6" t="n">
-        <v>592.0882800000001</v>
+        <v>5293.11278</v>
       </c>
       <c r="T6" t="n">
-        <v>11676.27752</v>
+        <v>94856.12088</v>
       </c>
       <c r="U6" t="n">
-        <v>8921.217780000001</v>
+        <v>39211.68811</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3282.05647</v>
+        <v>8351.1502</v>
       </c>
       <c r="C7" t="n">
-        <v>1798.02437</v>
+        <v>8511.597100000001</v>
       </c>
       <c r="D7" t="n">
-        <v>1110.47436</v>
+        <v>5537.7827</v>
       </c>
       <c r="E7" t="n">
-        <v>3147.56262</v>
+        <v>20252.6555</v>
       </c>
       <c r="F7" t="n">
-        <v>1492.41315</v>
+        <v>11950.427</v>
       </c>
       <c r="G7" t="n">
-        <v>1113.6276</v>
+        <v>7928.2934</v>
       </c>
       <c r="H7" t="n">
-        <v>1860.79289</v>
+        <v>9457.7695</v>
       </c>
       <c r="I7" t="n">
-        <v>2028.33087</v>
+        <v>8760.7145</v>
       </c>
       <c r="J7" t="n">
-        <v>11620.60999</v>
+        <v>58617.636</v>
       </c>
       <c r="K7" t="n">
-        <v>3300.93569</v>
+        <v>21048.9355</v>
       </c>
       <c r="L7" t="n">
-        <v>6682.85722</v>
+        <v>17502.5515</v>
       </c>
       <c r="M7" t="n">
-        <v>2838.42921</v>
+        <v>25610.0678</v>
       </c>
       <c r="N7" t="n">
-        <v>17225.21863</v>
+        <v>56034.8059</v>
       </c>
       <c r="O7" t="n">
-        <v>38924.57714</v>
+        <v>214225.2924</v>
       </c>
       <c r="P7" t="n">
-        <v>692.99066</v>
+        <v>5565.3052</v>
       </c>
       <c r="Q7" t="n">
-        <v>5417.01277</v>
+        <v>35191.1687</v>
       </c>
       <c r="R7" t="n">
-        <v>1095.77963</v>
+        <v>4540.7581</v>
       </c>
       <c r="S7" t="n">
-        <v>697.85649</v>
+        <v>5571.2951</v>
       </c>
       <c r="T7" t="n">
-        <v>12113.97938</v>
+        <v>83201.4972</v>
       </c>
       <c r="U7" t="n">
-        <v>9509.40273</v>
+        <v>42663.0994</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2983.62274</v>
+        <v>8336.8302</v>
       </c>
       <c r="C8" t="n">
-        <v>1924.62549</v>
+        <v>8947.1494</v>
       </c>
       <c r="D8" t="n">
-        <v>1263.0556</v>
+        <v>4471.3761</v>
       </c>
       <c r="E8" t="n">
-        <v>3638.32375</v>
+        <v>23204.4507</v>
       </c>
       <c r="F8" t="n">
-        <v>1763.01665</v>
+        <v>12713.2781</v>
       </c>
       <c r="G8" t="n">
-        <v>1228.75613</v>
+        <v>8709.1664</v>
       </c>
       <c r="H8" t="n">
-        <v>2283.50179</v>
+        <v>10862.0658</v>
       </c>
       <c r="I8" t="n">
-        <v>2523.19902</v>
+        <v>7850.9303</v>
       </c>
       <c r="J8" t="n">
-        <v>13211.36085</v>
+        <v>68869.2969</v>
       </c>
       <c r="K8" t="n">
-        <v>2704.90566</v>
+        <v>25619.1506</v>
       </c>
       <c r="L8" t="n">
-        <v>7116.36274</v>
+        <v>17111.4758</v>
       </c>
       <c r="M8" t="n">
-        <v>3025.43468</v>
+        <v>25622.7578</v>
       </c>
       <c r="N8" t="n">
-        <v>20380.60877</v>
+        <v>56406.3755</v>
       </c>
       <c r="O8" t="n">
-        <v>46530.53074</v>
+        <v>226843.3657</v>
       </c>
       <c r="P8" t="n">
-        <v>708.78273</v>
+        <v>6118.6626</v>
       </c>
       <c r="Q8" t="n">
-        <v>6461.03069</v>
+        <v>36578.9899</v>
       </c>
       <c r="R8" t="n">
-        <v>1199.13545</v>
+        <v>5357.594</v>
       </c>
       <c r="S8" t="n">
-        <v>1068.0854</v>
+        <v>6055.4472</v>
       </c>
       <c r="T8" t="n">
-        <v>15306.16116</v>
+        <v>91419.52310000001</v>
       </c>
       <c r="U8" t="n">
-        <v>10547.99746</v>
+        <v>44720.615</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3596.82253</v>
+        <v>8443.819</v>
       </c>
       <c r="C9" t="n">
-        <v>2070.03976</v>
+        <v>9372.52</v>
       </c>
       <c r="D9" t="n">
-        <v>1481.8871</v>
+        <v>4605.078</v>
       </c>
       <c r="E9" t="n">
-        <v>4206.23161</v>
+        <v>27133.317</v>
       </c>
       <c r="F9" t="n">
-        <v>2606.96826</v>
+        <v>14347.455</v>
       </c>
       <c r="G9" t="n">
-        <v>1353.50265</v>
+        <v>9958.134</v>
       </c>
       <c r="H9" t="n">
-        <v>2869.54107</v>
+        <v>13617.222</v>
       </c>
       <c r="I9" t="n">
-        <v>2859.90197</v>
+        <v>8086.133</v>
       </c>
       <c r="J9" t="n">
-        <v>16031.54118</v>
+        <v>77802.787</v>
       </c>
       <c r="K9" t="n">
-        <v>3778.31172</v>
+        <v>28503.89</v>
       </c>
       <c r="L9" t="n">
-        <v>7813.4038</v>
+        <v>17530.098</v>
       </c>
       <c r="M9" t="n">
-        <v>4210.27382</v>
+        <v>29855.155</v>
       </c>
       <c r="N9" t="n">
-        <v>24247.56765</v>
+        <v>69832.651</v>
       </c>
       <c r="O9" t="n">
-        <v>58073.15514</v>
+        <v>282417.272</v>
       </c>
       <c r="P9" t="n">
-        <v>813.0311</v>
+        <v>6702.029</v>
       </c>
       <c r="Q9" t="n">
-        <v>7448.26608</v>
+        <v>40821.42</v>
       </c>
       <c r="R9" t="n">
-        <v>1475.2251</v>
+        <v>6345.357</v>
       </c>
       <c r="S9" t="n">
-        <v>1143.96832</v>
+        <v>5789.835</v>
       </c>
       <c r="T9" t="n">
-        <v>19709.87873</v>
+        <v>118490.987</v>
       </c>
       <c r="U9" t="n">
-        <v>11696.35591</v>
+        <v>45356.874</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5373.5616</v>
+        <v>8789</v>
       </c>
       <c r="C10" t="n">
-        <v>2926.9829</v>
+        <v>10754.9</v>
       </c>
       <c r="D10" t="n">
-        <v>2373.1933</v>
+        <v>4824.2</v>
       </c>
       <c r="E10" t="n">
-        <v>5906.3509</v>
+        <v>29856.4</v>
       </c>
       <c r="F10" t="n">
-        <v>4430.5138</v>
+        <v>17653.1</v>
       </c>
       <c r="G10" t="n">
-        <v>2277.54</v>
+        <v>11431.4</v>
       </c>
       <c r="H10" t="n">
-        <v>4063.1952</v>
+        <v>11737.2</v>
       </c>
       <c r="I10" t="n">
-        <v>3699.8489</v>
+        <v>8747.200000000001</v>
       </c>
       <c r="J10" t="n">
-        <v>26290.8987</v>
+        <v>87623.39999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>7918.8446</v>
+        <v>34684.5</v>
       </c>
       <c r="L10" t="n">
-        <v>8568.1603</v>
+        <v>18363.9</v>
       </c>
       <c r="M10" t="n">
-        <v>10423.7898</v>
+        <v>33368.3</v>
       </c>
       <c r="N10" t="n">
-        <v>31048.0045</v>
+        <v>76655.60000000001</v>
       </c>
       <c r="O10" t="n">
-        <v>99121.30989999999</v>
+        <v>318151</v>
       </c>
       <c r="P10" t="n">
-        <v>1432.8211</v>
+        <v>7035.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>10269.476</v>
+        <v>46947.8</v>
       </c>
       <c r="R10" t="n">
-        <v>2338.0084</v>
+        <v>7611.8</v>
       </c>
       <c r="S10" t="n">
-        <v>3650.11</v>
+        <v>4819</v>
       </c>
       <c r="T10" t="n">
-        <v>40508.2309</v>
+        <v>135370.6</v>
       </c>
       <c r="U10" t="n">
-        <v>14443.9782</v>
+        <v>47801.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3856.82061</v>
+        <v>11425.0842</v>
       </c>
       <c r="C11" t="n">
-        <v>3034.27653</v>
+        <v>13905.8768</v>
       </c>
       <c r="D11" t="n">
-        <v>2197.74381</v>
+        <v>5601.2624</v>
       </c>
       <c r="E11" t="n">
-        <v>6813.70873</v>
+        <v>35431.3865</v>
       </c>
       <c r="F11" t="n">
-        <v>4389.30043</v>
+        <v>23095.359</v>
       </c>
       <c r="G11" t="n">
-        <v>1980.99935</v>
+        <v>12540.3141</v>
       </c>
       <c r="H11" t="n">
-        <v>4653.16018</v>
+        <v>13327.9521</v>
       </c>
       <c r="I11" t="n">
-        <v>3511.92159</v>
+        <v>9458.1091</v>
       </c>
       <c r="J11" t="n">
-        <v>25403.71823</v>
+        <v>95811.7837</v>
       </c>
       <c r="K11" t="n">
-        <v>7459.28377</v>
+        <v>36122.9787</v>
       </c>
       <c r="L11" t="n">
-        <v>9363.02838</v>
+        <v>18957.8646</v>
       </c>
       <c r="M11" t="n">
-        <v>10413.65192</v>
+        <v>40453.6414</v>
       </c>
       <c r="N11" t="n">
-        <v>29379.59817</v>
+        <v>72056.42170000001</v>
       </c>
       <c r="O11" t="n">
-        <v>88821.41953</v>
+        <v>369584.0988</v>
       </c>
       <c r="P11" t="n">
-        <v>1476.4609</v>
+        <v>8483.426600000001</v>
       </c>
       <c r="Q11" t="n">
-        <v>9665.086789999999</v>
+        <v>53637.8682</v>
       </c>
       <c r="R11" t="n">
-        <v>2570.77995</v>
+        <v>7934.1833</v>
       </c>
       <c r="S11" t="n">
-        <v>2884.02087</v>
+        <v>5456.3178</v>
       </c>
       <c r="T11" t="n">
-        <v>33399.1095</v>
+        <v>171634.3482</v>
       </c>
       <c r="U11" t="n">
-        <v>15374.5602</v>
+        <v>54371.408</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5607.4</v>
+        <v>14320.5513</v>
       </c>
       <c r="C12" t="n">
-        <v>3969.4</v>
+        <v>18854.3435</v>
       </c>
       <c r="D12" t="n">
-        <v>2461.6</v>
+        <v>5800.5738</v>
       </c>
       <c r="E12" t="n">
-        <v>8076.6</v>
+        <v>37287.8704</v>
       </c>
       <c r="F12" t="n">
-        <v>5965.6</v>
+        <v>27243.533</v>
       </c>
       <c r="G12" t="n">
-        <v>2723.8</v>
+        <v>13489.5648</v>
       </c>
       <c r="H12" t="n">
-        <v>6447.7</v>
+        <v>13960.5636</v>
       </c>
       <c r="I12" t="n">
-        <v>4168.2</v>
+        <v>9153.433199999999</v>
       </c>
       <c r="J12" t="n">
-        <v>35139.5</v>
+        <v>106329.8598</v>
       </c>
       <c r="K12" t="n">
-        <v>11474.7</v>
+        <v>37647.9379</v>
       </c>
       <c r="L12" t="n">
-        <v>10589</v>
+        <v>19756.9654</v>
       </c>
       <c r="M12" t="n">
-        <v>16822.1</v>
+        <v>44479.6467</v>
       </c>
       <c r="N12" t="n">
-        <v>39763.7</v>
+        <v>66143.7841</v>
       </c>
       <c r="O12" t="n">
-        <v>128815.7</v>
+        <v>420168.1221</v>
       </c>
       <c r="P12" t="n">
-        <v>2192.1</v>
+        <v>9895.6597</v>
       </c>
       <c r="Q12" t="n">
-        <v>12221</v>
+        <v>56340.6955</v>
       </c>
       <c r="R12" t="n">
-        <v>3123.3</v>
+        <v>11446.2011</v>
       </c>
       <c r="S12" t="n">
-        <v>3483.8</v>
+        <v>5684.1668</v>
       </c>
       <c r="T12" t="n">
-        <v>49625.9</v>
+        <v>209836.3394</v>
       </c>
       <c r="U12" t="n">
-        <v>19083.8</v>
+        <v>60797.6122</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7522.7403</v>
+        <v>18555.2348</v>
       </c>
       <c r="C13" t="n">
-        <v>4997.6507</v>
+        <v>24997.4592</v>
       </c>
       <c r="D13" t="n">
-        <v>3472.0255</v>
+        <v>7096.2442</v>
       </c>
       <c r="E13" t="n">
-        <v>10465.0725</v>
+        <v>42889.1829</v>
       </c>
       <c r="F13" t="n">
-        <v>8763.363600000001</v>
+        <v>34889.0227</v>
       </c>
       <c r="G13" t="n">
-        <v>3632.8701</v>
+        <v>17296.74</v>
       </c>
       <c r="H13" t="n">
-        <v>7786.0292</v>
+        <v>16627.6338</v>
       </c>
       <c r="I13" t="n">
-        <v>5888.5311</v>
+        <v>10862.4085</v>
       </c>
       <c r="J13" t="n">
-        <v>45023.6214</v>
+        <v>124675.5895</v>
       </c>
       <c r="K13" t="n">
-        <v>14392.074</v>
+        <v>41652.8131</v>
       </c>
       <c r="L13" t="n">
-        <v>12465.5934</v>
+        <v>20503.8229</v>
       </c>
       <c r="M13" t="n">
-        <v>22639.8533</v>
+        <v>72782.13310000001</v>
       </c>
       <c r="N13" t="n">
-        <v>54448.8103</v>
+        <v>88128.33530000001</v>
       </c>
       <c r="O13" t="n">
-        <v>173469.7154</v>
+        <v>584658.9244</v>
       </c>
       <c r="P13" t="n">
-        <v>2933.4312</v>
+        <v>12287.1563</v>
       </c>
       <c r="Q13" t="n">
-        <v>15918.7048</v>
+        <v>67734.5819</v>
       </c>
       <c r="R13" t="n">
-        <v>4840.9931</v>
+        <v>15237.2097</v>
       </c>
       <c r="S13" t="n">
-        <v>3995.3221</v>
+        <v>6610.5521</v>
       </c>
       <c r="T13" t="n">
-        <v>65785.29949999999</v>
+        <v>288213.9485</v>
       </c>
       <c r="U13" t="n">
-        <v>23675.3159</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>7135.53467</v>
-      </c>
-      <c r="C14" t="n">
-        <v>5985.75071</v>
-      </c>
-      <c r="D14" t="n">
-        <v>4793.65798</v>
-      </c>
-      <c r="E14" t="n">
-        <v>12297.9861</v>
-      </c>
-      <c r="F14" t="n">
-        <v>9980.68255</v>
-      </c>
-      <c r="G14" t="n">
-        <v>5162.23535</v>
-      </c>
-      <c r="H14" t="n">
-        <v>8129.34958</v>
-      </c>
-      <c r="I14" t="n">
-        <v>6619.0514</v>
-      </c>
-      <c r="J14" t="n">
-        <v>42168.64253</v>
-      </c>
-      <c r="K14" t="n">
-        <v>15177.63932</v>
-      </c>
-      <c r="L14" t="n">
-        <v>14330.6015</v>
-      </c>
-      <c r="M14" t="n">
-        <v>27717.76832</v>
-      </c>
-      <c r="N14" t="n">
-        <v>60665.48824</v>
-      </c>
-      <c r="O14" t="n">
-        <v>196624.46741</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3780.68365</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>25825.57054</v>
-      </c>
-      <c r="R14" t="n">
-        <v>4140.64629</v>
-      </c>
-      <c r="S14" t="n">
-        <v>4035.4985</v>
-      </c>
-      <c r="T14" t="n">
-        <v>70440.59897000001</v>
-      </c>
-      <c r="U14" t="n">
-        <v>27855.6361</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>8627.679459999999</v>
-      </c>
-      <c r="C15" t="n">
-        <v>8113.93278</v>
-      </c>
-      <c r="D15" t="n">
-        <v>5167.96676</v>
-      </c>
-      <c r="E15" t="n">
-        <v>15366.94312</v>
-      </c>
-      <c r="F15" t="n">
-        <v>11689.07185</v>
-      </c>
-      <c r="G15" t="n">
-        <v>6490.6852</v>
-      </c>
-      <c r="H15" t="n">
-        <v>9902.891670000001</v>
-      </c>
-      <c r="I15" t="n">
-        <v>7922.44317</v>
-      </c>
-      <c r="J15" t="n">
-        <v>49471.97163</v>
-      </c>
-      <c r="K15" t="n">
-        <v>17540.22134</v>
-      </c>
-      <c r="L15" t="n">
-        <v>15864.97952</v>
-      </c>
-      <c r="M15" t="n">
-        <v>32927.05369</v>
-      </c>
-      <c r="N15" t="n">
-        <v>70492.8942</v>
-      </c>
-      <c r="O15" t="n">
-        <v>238585.34908</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4756.52038</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>31860.99047</v>
-      </c>
-      <c r="R15" t="n">
-        <v>4294.49881</v>
-      </c>
-      <c r="S15" t="n">
-        <v>4964.38422</v>
-      </c>
-      <c r="T15" t="n">
-        <v>86602.62139</v>
-      </c>
-      <c r="U15" t="n">
-        <v>34634.60241</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>9180.637699999999</v>
-      </c>
-      <c r="C16" t="n">
-        <v>8453.764440000001</v>
-      </c>
-      <c r="D16" t="n">
-        <v>5530.12545</v>
-      </c>
-      <c r="E16" t="n">
-        <v>17981.351</v>
-      </c>
-      <c r="F16" t="n">
-        <v>12755.40099</v>
-      </c>
-      <c r="G16" t="n">
-        <v>7007.16337</v>
-      </c>
-      <c r="H16" t="n">
-        <v>9847.49431</v>
-      </c>
-      <c r="I16" t="n">
-        <v>8666.94137</v>
-      </c>
-      <c r="J16" t="n">
-        <v>56146.64303</v>
-      </c>
-      <c r="K16" t="n">
-        <v>20087.01846</v>
-      </c>
-      <c r="L16" t="n">
-        <v>17212.0571</v>
-      </c>
-      <c r="M16" t="n">
-        <v>31339.27671</v>
-      </c>
-      <c r="N16" t="n">
-        <v>70909.82332</v>
-      </c>
-      <c r="O16" t="n">
-        <v>252479.0203</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5297.08975</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>34924.99922</v>
-      </c>
-      <c r="R16" t="n">
-        <v>4625.29309</v>
-      </c>
-      <c r="S16" t="n">
-        <v>5293.11278</v>
-      </c>
-      <c r="T16" t="n">
-        <v>94856.12088</v>
-      </c>
-      <c r="U16" t="n">
-        <v>39211.68811</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>8351.1502</v>
-      </c>
-      <c r="C17" t="n">
-        <v>8511.597100000001</v>
-      </c>
-      <c r="D17" t="n">
-        <v>5537.7827</v>
-      </c>
-      <c r="E17" t="n">
-        <v>20252.6555</v>
-      </c>
-      <c r="F17" t="n">
-        <v>11950.427</v>
-      </c>
-      <c r="G17" t="n">
-        <v>7928.2934</v>
-      </c>
-      <c r="H17" t="n">
-        <v>9457.7695</v>
-      </c>
-      <c r="I17" t="n">
-        <v>8760.7145</v>
-      </c>
-      <c r="J17" t="n">
-        <v>58617.636</v>
-      </c>
-      <c r="K17" t="n">
-        <v>21048.9355</v>
-      </c>
-      <c r="L17" t="n">
-        <v>17502.5515</v>
-      </c>
-      <c r="M17" t="n">
-        <v>25610.0678</v>
-      </c>
-      <c r="N17" t="n">
-        <v>56034.8059</v>
-      </c>
-      <c r="O17" t="n">
-        <v>214225.2924</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5565.3052</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>35191.1687</v>
-      </c>
-      <c r="R17" t="n">
-        <v>4540.7581</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5571.2951</v>
-      </c>
-      <c r="T17" t="n">
-        <v>83201.4972</v>
-      </c>
-      <c r="U17" t="n">
-        <v>42663.0994</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>8336.8302</v>
-      </c>
-      <c r="C18" t="n">
-        <v>8947.1494</v>
-      </c>
-      <c r="D18" t="n">
-        <v>4471.3761</v>
-      </c>
-      <c r="E18" t="n">
-        <v>23204.4507</v>
-      </c>
-      <c r="F18" t="n">
-        <v>12713.2781</v>
-      </c>
-      <c r="G18" t="n">
-        <v>8709.1664</v>
-      </c>
-      <c r="H18" t="n">
-        <v>10862.0658</v>
-      </c>
-      <c r="I18" t="n">
-        <v>7850.9303</v>
-      </c>
-      <c r="J18" t="n">
-        <v>68869.2969</v>
-      </c>
-      <c r="K18" t="n">
-        <v>25619.1506</v>
-      </c>
-      <c r="L18" t="n">
-        <v>17111.4758</v>
-      </c>
-      <c r="M18" t="n">
-        <v>25622.7578</v>
-      </c>
-      <c r="N18" t="n">
-        <v>56406.3755</v>
-      </c>
-      <c r="O18" t="n">
-        <v>226843.3657</v>
-      </c>
-      <c r="P18" t="n">
-        <v>6118.6626</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>36578.9899</v>
-      </c>
-      <c r="R18" t="n">
-        <v>5357.594</v>
-      </c>
-      <c r="S18" t="n">
-        <v>6055.4472</v>
-      </c>
-      <c r="T18" t="n">
-        <v>91419.52310000001</v>
-      </c>
-      <c r="U18" t="n">
-        <v>44720.615</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>8443.819</v>
-      </c>
-      <c r="C19" t="n">
-        <v>9372.52</v>
-      </c>
-      <c r="D19" t="n">
-        <v>4605.078</v>
-      </c>
-      <c r="E19" t="n">
-        <v>27133.317</v>
-      </c>
-      <c r="F19" t="n">
-        <v>14347.455</v>
-      </c>
-      <c r="G19" t="n">
-        <v>9958.134</v>
-      </c>
-      <c r="H19" t="n">
-        <v>13617.222</v>
-      </c>
-      <c r="I19" t="n">
-        <v>8086.133</v>
-      </c>
-      <c r="J19" t="n">
-        <v>77802.787</v>
-      </c>
-      <c r="K19" t="n">
-        <v>28503.89</v>
-      </c>
-      <c r="L19" t="n">
-        <v>17530.098</v>
-      </c>
-      <c r="M19" t="n">
-        <v>29855.155</v>
-      </c>
-      <c r="N19" t="n">
-        <v>69832.651</v>
-      </c>
-      <c r="O19" t="n">
-        <v>282417.272</v>
-      </c>
-      <c r="P19" t="n">
-        <v>6702.029</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>40821.42</v>
-      </c>
-      <c r="R19" t="n">
-        <v>6345.357</v>
-      </c>
-      <c r="S19" t="n">
-        <v>5789.835</v>
-      </c>
-      <c r="T19" t="n">
-        <v>118490.987</v>
-      </c>
-      <c r="U19" t="n">
-        <v>45356.874</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>8789</v>
-      </c>
-      <c r="C20" t="n">
-        <v>10754.9</v>
-      </c>
-      <c r="D20" t="n">
-        <v>4824.2</v>
-      </c>
-      <c r="E20" t="n">
-        <v>29856.4</v>
-      </c>
-      <c r="F20" t="n">
-        <v>17653.1</v>
-      </c>
-      <c r="G20" t="n">
-        <v>11431.4</v>
-      </c>
-      <c r="H20" t="n">
-        <v>11737.2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>8747.200000000001</v>
-      </c>
-      <c r="J20" t="n">
-        <v>87623.39999999999</v>
-      </c>
-      <c r="K20" t="n">
-        <v>34684.5</v>
-      </c>
-      <c r="L20" t="n">
-        <v>18363.9</v>
-      </c>
-      <c r="M20" t="n">
-        <v>33368.3</v>
-      </c>
-      <c r="N20" t="n">
-        <v>76655.60000000001</v>
-      </c>
-      <c r="O20" t="n">
-        <v>318151</v>
-      </c>
-      <c r="P20" t="n">
-        <v>7035.2</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>46947.8</v>
-      </c>
-      <c r="R20" t="n">
-        <v>7611.8</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4819</v>
-      </c>
-      <c r="T20" t="n">
-        <v>135370.6</v>
-      </c>
-      <c r="U20" t="n">
-        <v>47801.4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>11425.0842</v>
-      </c>
-      <c r="C21" t="n">
-        <v>13905.8768</v>
-      </c>
-      <c r="D21" t="n">
-        <v>5601.2624</v>
-      </c>
-      <c r="E21" t="n">
-        <v>35431.3865</v>
-      </c>
-      <c r="F21" t="n">
-        <v>23095.359</v>
-      </c>
-      <c r="G21" t="n">
-        <v>12540.3141</v>
-      </c>
-      <c r="H21" t="n">
-        <v>13327.9521</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9458.1091</v>
-      </c>
-      <c r="J21" t="n">
-        <v>95811.7837</v>
-      </c>
-      <c r="K21" t="n">
-        <v>36122.9787</v>
-      </c>
-      <c r="L21" t="n">
-        <v>18957.8646</v>
-      </c>
-      <c r="M21" t="n">
-        <v>40453.6414</v>
-      </c>
-      <c r="N21" t="n">
-        <v>72056.42170000001</v>
-      </c>
-      <c r="O21" t="n">
-        <v>369584.0988</v>
-      </c>
-      <c r="P21" t="n">
-        <v>8483.426600000001</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>53637.8682</v>
-      </c>
-      <c r="R21" t="n">
-        <v>7934.1833</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5456.3178</v>
-      </c>
-      <c r="T21" t="n">
-        <v>171634.3482</v>
-      </c>
-      <c r="U21" t="n">
-        <v>54371.408</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>14320.5513</v>
-      </c>
-      <c r="C22" t="n">
-        <v>18854.3435</v>
-      </c>
-      <c r="D22" t="n">
-        <v>5800.5738</v>
-      </c>
-      <c r="E22" t="n">
-        <v>37287.8704</v>
-      </c>
-      <c r="F22" t="n">
-        <v>27243.533</v>
-      </c>
-      <c r="G22" t="n">
-        <v>13489.5648</v>
-      </c>
-      <c r="H22" t="n">
-        <v>13960.5636</v>
-      </c>
-      <c r="I22" t="n">
-        <v>9153.433199999999</v>
-      </c>
-      <c r="J22" t="n">
-        <v>106329.8598</v>
-      </c>
-      <c r="K22" t="n">
-        <v>37647.9379</v>
-      </c>
-      <c r="L22" t="n">
-        <v>19756.9654</v>
-      </c>
-      <c r="M22" t="n">
-        <v>44479.6467</v>
-      </c>
-      <c r="N22" t="n">
-        <v>66143.7841</v>
-      </c>
-      <c r="O22" t="n">
-        <v>420168.1221</v>
-      </c>
-      <c r="P22" t="n">
-        <v>9895.6597</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>56340.6955</v>
-      </c>
-      <c r="R22" t="n">
-        <v>11446.2011</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5684.1668</v>
-      </c>
-      <c r="T22" t="n">
-        <v>209836.3394</v>
-      </c>
-      <c r="U22" t="n">
-        <v>60797.6122</v>
+        <v>72216.9519</v>
       </c>
     </row>
   </sheetData>
